--- a/output/teste/df_variables_last_time_step1.xlsx
+++ b/output/teste/df_variables_last_time_step1.xlsx
@@ -31,112 +31,112 @@
     <t>param_demand1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_net1_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net1_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_net1_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net1_demand1_starting_index</t>
+    <t>param_pv1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
     <t>param_pv1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_pv1_emissions_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_pv1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_P_pv1_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_pv1_starting_index</t>
+    <t>param_P_from_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_cumulated_aging_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_max_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
   </si>
   <si>
     <t>param_bat1_SOC_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_cumulated_aging_starting_index</t>
-  </si>
-  <si>
     <t>param_bat1_op_cost_starting_index</t>
   </si>
   <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
     <t>param_P_to_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_max_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
+    <t>param_total_operation_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_buy_starting_index</t>
   </si>
   <si>
     <t>param_total_sell_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_buy_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_operation_cost_starting_index</t>
   </si>
   <si>
     <t>param_total_emissions_starting_index</t>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>67.64815180791361</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>111.0477035032966</v>
+        <v>169.120379519784</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>102.1638872230329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>143.1566925055843</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>51.63718212903292</v>
+        <v>50.10484237695452</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>166.5715552549449</v>
+        <v>95.4377950037229</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>48.86098954145051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>129.0650187324193</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>111.0477035032966</v>
+        <v>143.1566925055843</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>166.5715552549449</v>
+        <v>73.68258451606111</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -700,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -708,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.2046738458779475</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.544709741934352E-05</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -732,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -740,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-0</v>
+        <v>0.9999845529025807</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -764,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.9999845529025807</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -788,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -796,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>73.68258451606111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>100.4981716704834</v>
+        <v>117.7529941848681</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -820,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -828,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>102.1638872230329</v>
+        <v>129.2696925782973</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_variables_last_time_step1.xlsx
+++ b/output/teste/df_variables_last_time_step1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Parameter</t>
   </si>
@@ -25,109 +25,130 @@
     <t>param_TimeStep_starting_index</t>
   </si>
   <si>
+    <t>param_demand1_inv_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_demand1_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_demand1_inv_cost_starting_index</t>
+    <t>param_demand2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_demand2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat1_starting_index</t>
   </si>
   <si>
     <t>param_net1_buy_electric_starting_index</t>
   </si>
   <si>
+    <t>param_net1_buy_thermal_starting_index</t>
+  </si>
+  <si>
     <t>param_P_from_net1_starting_index</t>
   </si>
   <si>
     <t>param_net1_sell_electric_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_demand1_starting_index</t>
+    <t>param_Q_to_net1_starting_index</t>
   </si>
   <si>
     <t>param_net1_sell_thermal_starting_index</t>
   </si>
   <si>
-    <t>param_Q_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_net1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net1_bat1_starting_index</t>
+    <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
     <t>param_pv1_op_cost_starting_index</t>
   </si>
   <si>
+    <t>param_P_pv1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_emissions_starting_index</t>
+  </si>
+  <si>
     <t>param_P_from_pv1_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat1_starting_index</t>
+    <t>param_P_pv1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_max_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
   </si>
   <si>
     <t>param_P_from_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_emissions_starting_index</t>
+    <t>param_bat1_SOC_starting_index</t>
   </si>
   <si>
     <t>param_bat1_cumulated_aging_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_max_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_bat1_starting_index</t>
+    <t>param_total_emissions_starting_index</t>
   </si>
   <si>
     <t>param_total_operation_cost_starting_index</t>
@@ -137,9 +158,6 @@
   </si>
   <si>
     <t>param_total_sell_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_emissions_starting_index</t>
   </si>
 </sst>
 </file>
@@ -497,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>67.64815180791361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -548,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>169.120379519784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -556,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -564,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>143.1566925055843</v>
+        <v>1143.156692505584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -572,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>50.10484237695452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -580,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>95.4377950037229</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -596,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>95.4377950037229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -604,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>649.0650187324193</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -612,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>129.0650187324193</v>
+        <v>73.68258451606111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -620,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>267.6481518079136</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -628,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>143.1566925055843</v>
+        <v>400.1048423769545</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -636,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>73.68258451606111</v>
+        <v>669.1203795197839</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -644,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -668,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>143.1566925055843</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -684,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -708,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.2046738458779475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -716,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.544709741934352E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -724,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -740,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.2046738458779475</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -748,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.9999845529025807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -756,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.9999845529025807</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -764,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>73.68258451606111</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -772,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.9999845529025807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -796,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>73.68258451606111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -804,7 +822,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -812,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>117.7529941848681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -828,7 +846,55 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>129.2696925782973</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.9999845529025807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>1.544709741934352E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>649.2696925782972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>667.752994184868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_variables_last_time_step1.xlsx
+++ b/output/teste/df_variables_last_time_step1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>Parameter</t>
   </si>
@@ -37,127 +37,700 @@
     <t>param_demand2_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_P_net1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
     <t>param_P_net1_demand2_starting_index</t>
   </si>
   <si>
+    <t>param_P_net1_bat1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_from_net1_starting_index</t>
   </si>
   <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
+    <t>param_net1_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net1_starting_index</t>
   </si>
   <si>
     <t>param_P_net1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net1_demand1_starting_index</t>
+    <t>param_net2_buy_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
-    <t>param_pv1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_demand1_starting_index</t>
+    <t>param_P_pv1_charging_station2_starting_index</t>
   </si>
   <si>
     <t>param_pv1_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_pv1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_demand2_starting_index</t>
+    <t>param_P_pv2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_charging_station1_starting_index</t>
   </si>
   <si>
     <t>param_bat1_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_inv_cost_starting_index</t>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_cumulated_aging_starting_index</t>
   </si>
   <si>
     <t>param_bat1_SOC_max_starting_index</t>
   </si>
   <si>
-    <t>param_P_to_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
     <t>param_P_from_bat1_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_cumulated_aging_starting_index</t>
+    <t>param_P_bat1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_cumulated_aging_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_SOC_max_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_integer_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_CHP1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_fuel_cons_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_fuel_cons_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_solar_th1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_solar_th2_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_charging_station2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_operation_cost_starting_index</t>
   </si>
   <si>
     <t>param_total_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_total_operation_cost_starting_index</t>
+    <t>param_total_sell_starting_index</t>
   </si>
   <si>
     <t>param_total_buy_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_sell_starting_index</t>
   </si>
 </sst>
 </file>
@@ -515,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1143.156692505584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -598,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -614,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>95.4377950037229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>649.0650187324193</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -630,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>73.68258451606111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -638,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>267.6481518079136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -646,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>400.1048423769545</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -654,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>669.1203795197839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -662,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>215.52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -678,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>301.728</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -686,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>143.1566925055843</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -702,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -718,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>538.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -734,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>180.0793385011169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -758,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.2046738458779475</v>
+        <v>53.6377950037229</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -774,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.9999845529025807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -782,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>73.68258451606111</v>
+        <v>900.3966925055844</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -790,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>53.6377950037229</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -798,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -806,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -814,7 +1387,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>838.4400000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -822,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -854,7 +1427,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.9999845529025807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -862,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1.544709741934352E-05</v>
+        <v>246.1323714034251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -870,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>649.2696925782972</v>
+        <v>61.95669250558429</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -878,7 +1451,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -886,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>667.752994184868</v>
+        <v>21.45511800148916</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -895,6 +1468,1534 @@
       </c>
       <c r="B47">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>0.7800000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>8.561643835616438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>8.561643835616438</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>42.12328767123287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>563.940371403425</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>417.0544565026061</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_variables_last_time_step1.xlsx
+++ b/output/teste/df_variables_last_time_step1.xlsx
@@ -25,712 +25,712 @@
     <t>param_TimeStep_starting_index</t>
   </si>
   <si>
+    <t>param_demand1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_demand1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_demand1_op_cost_starting_index</t>
+    <t>param_demand2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_demand2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_demand2_inv_cost_starting_index</t>
+    <t>param_Q_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_net1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_bat1_starting_index</t>
   </si>
   <si>
     <t>param_P_net1_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_P_to_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_to_net1_starting_index</t>
   </si>
   <si>
+    <t>param_net1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net1_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_net1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_net1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_electric_starting_index</t>
-  </si>
-  <si>
     <t>param_net1_buy_thermal_starting_index</t>
   </si>
   <si>
-    <t>param_P_net1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_buy_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net1_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net1_demand1_starting_index</t>
+    <t>param_net2_buy_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_net2_buy_thermal_starting_index</t>
   </si>
   <si>
-    <t>param_net2_inv_cost_starting_index</t>
+    <t>param_net2_sell_thermal_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_net2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_sell_electric_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_net2_charging_station2_starting_index</t>
   </si>
   <si>
+    <t>param_Q_to_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_net2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_net2_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_net2_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_sell_thermal_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_net2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_sell_electric_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_net2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_net2_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_net2_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_net2_buy_electric_starting_index</t>
+    <t>param_P_pv1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv1_bat2_starting_index</t>
   </si>
   <si>
     <t>param_P_pv1_net2_starting_index</t>
   </si>
   <si>
+    <t>param_P_pv1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pv1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv1_heat_pump2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat2_starting_index</t>
-  </si>
-  <si>
     <t>param_P_pv1_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_pv1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_bat1_starting_index</t>
+    <t>param_P_pv1_net1_starting_index</t>
   </si>
   <si>
     <t>param_pv1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_pv1_emissions_starting_index</t>
+    <t>param_P_pv2_charging_station1_starting_index</t>
   </si>
   <si>
     <t>param_P_pv2_net1_starting_index</t>
   </si>
   <si>
+    <t>param_P_from_pv2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pv2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pv2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pv2_net2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_charging_station1_starting_index</t>
-  </si>
-  <si>
     <t>param_pv2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_pv2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_heat_pump1_starting_index</t>
-  </si>
-  <si>
     <t>param_pv2_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_pv2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pv2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pv2_demand1_starting_index</t>
+    <t>param_bat1_K_ch_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_cumulated_aging_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_K_dis_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_integer_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat1_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat1_starting_index</t>
   </si>
   <si>
     <t>param_bat1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_to_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_integer_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_ch_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_heat_pump1_starting_index</t>
+    <t>param_P_from_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat1_demand1_starting_index</t>
   </si>
   <si>
     <t>param_P_bat1_charging_station2_starting_index</t>
   </si>
   <si>
-    <t>param_bat1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat1_cumulated_aging_starting_index</t>
+    <t>param_P_bat1_net2_starting_index</t>
   </si>
   <si>
     <t>param_bat1_SOC_max_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat1_net2_starting_index</t>
+    <t>param_P_bat2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_SOC_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_bat2_cumulated_aging_starting_index</t>
   </si>
   <si>
+    <t>param_P_bat2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_to_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_bat2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_bat2_K_dis_starting_index</t>
+  </si>
+  <si>
     <t>param_bat2_K_ch_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_K_dis_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_SOC_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_net1_starting_index</t>
-  </si>
-  <si>
     <t>param_bat2_SOC_max_starting_index</t>
   </si>
   <si>
-    <t>param_bat2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_bat2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_bat2_starting_index</t>
-  </si>
-  <si>
     <t>param_bat2_integer_starting_index</t>
   </si>
   <si>
-    <t>param_P_bat2_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_bat2_demand2_starting_index</t>
+    <t>param_Q_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP1_fuel_cons_starting_index</t>
   </si>
   <si>
     <t>param_CHP1_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_P_CHP1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_CHP1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_net1_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_from_CHP1_starting_index</t>
   </si>
   <si>
-    <t>param_P_CHP1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_demand2_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_CHP1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_CHP1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP1_fuel_cons_starting_index</t>
+    <t>param_P_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_fuel_cons_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_charging_station1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_CHP2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_CHP2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_CHP2_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_CHP2_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_CHP2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_charging_station1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_fuel_cons_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_net2_starting_index</t>
+    <t>param_P_CHP2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_CHP2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_P_CHP2_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_CHP2_starting_index</t>
-  </si>
-  <si>
     <t>param_P_CHP2_charging_station2_starting_index</t>
   </si>
   <si>
-    <t>param_CHP2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_CHP2_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_CHP2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_CHP2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_CHP2_demand2_starting_index</t>
+    <t>param_Q_solar_th1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_solar_th1_starting_index</t>
   </si>
   <si>
     <t>param_Q_solar_th1_demand1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_solar_th1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_solar_th1_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_solar_th1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th1_op_cost_starting_index</t>
-  </si>
-  <si>
     <t>param_solar_th1_emissions_starting_index</t>
   </si>
   <si>
     <t>param_Q_solar_th1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_solar_th1_starting_index</t>
+    <t>param_Q_solar_th2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_solar_th2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_Q_from_solar_th2_starting_index</t>
   </si>
   <si>
+    <t>param_solar_th2_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_solar_th2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_solar_th2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_solar_th2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_solar_th2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_solar_th2_demand2_starting_index</t>
+    <t>param_P_pvt1_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_inv_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_pvt1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_pvt1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_heat_pump2_starting_index</t>
+    <t>param_P_pvt1_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt1_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt1_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_pvt1_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pvt1_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_pvt1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pvt1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt1_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt1_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt1_demand2_starting_index</t>
+    <t>param_P_pvt2_bat1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt2_net1_starting_index</t>
   </si>
   <si>
+    <t>param_Q_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_pvt2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_charging_station2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_pvt2_bat2_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_P_pvt2_charging_station1_starting_index</t>
   </si>
   <si>
+    <t>param_P_pvt2_demand1_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_pvt2_net2_starting_index</t>
   </si>
   <si>
     <t>param_P_pvt2_net2_starting_index</t>
   </si>
   <si>
-    <t>param_P_pvt2_charging_station2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_demand1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_pvt2_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_from_pvt2_starting_index</t>
+    <t>param_P_pvt2_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_pvt2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_pvt2_inv_cost_starting_index</t>
   </si>
   <si>
     <t>param_Q_pvt2_demand2_starting_index</t>
   </si>
   <si>
-    <t>param_Q_pvt2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_bat1_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_bat2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_pvt2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_pvt2_heat_pump1_starting_index</t>
-  </si>
-  <si>
     <t>param_pvt2_op_cost_starting_index</t>
   </si>
   <si>
-    <t>param_pvt2_inv_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_pvt2_demand1_starting_index</t>
-  </si>
-  <si>
     <t>param_charging_station1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_charging_station1_op_cost_starting_index</t>
+  </si>
+  <si>
     <t>param_charging_station1_emissions_starting_index</t>
   </si>
   <si>
-    <t>param_charging_station1_op_cost_starting_index</t>
+    <t>param_charging_station2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_charging_station2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_charging_station2_emissions_starting_index</t>
-  </si>
-  <si>
     <t>param_charging_station2_op_cost_starting_index</t>
   </si>
   <si>
+    <t>param_Q_heat_pump1_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_op_cost_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump1_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_to_heat_pump1_starting_index</t>
+  </si>
+  <si>
+    <t>param_P_from_heat_pump1_starting_index</t>
+  </si>
+  <si>
     <t>param_heat_pump1_inv_cost_starting_index</t>
   </si>
   <si>
+    <t>param_Q_heat_pump1_net2_starting_index</t>
+  </si>
+  <si>
     <t>param_Q_heat_pump1_demand1_starting_index</t>
   </si>
   <si>
-    <t>param_P_from_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_to_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump1_net2_starting_index</t>
+    <t>param_Q_heat_pump1_demand2_starting_index</t>
   </si>
   <si>
     <t>param_P_to_heat_pump1_starting_index</t>
   </si>
   <si>
-    <t>param_Q_heat_pump1_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_from_heat_pump1_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump1_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump1_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump1_emissions_starting_index</t>
+    <t>param_P_to_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_from_heat_pump2_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_emissions_starting_index</t>
   </si>
   <si>
     <t>param_P_from_heat_pump2_starting_index</t>
   </si>
   <si>
-    <t>param_heat_pump2_emissions_starting_index</t>
+    <t>param_Q_heat_pump2_demand2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net1_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_net2_starting_index</t>
+  </si>
+  <si>
+    <t>param_Q_heat_pump2_demand1_starting_index</t>
+  </si>
+  <si>
+    <t>param_heat_pump2_op_cost_starting_index</t>
   </si>
   <si>
     <t>param_heat_pump2_inv_cost_starting_index</t>
   </si>
   <si>
-    <t>param_Q_from_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_P_to_heat_pump2_starting_index</t>
-  </si>
-  <si>
-    <t>param_heat_pump2_op_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_net2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_demand2_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_net1_starting_index</t>
-  </si>
-  <si>
-    <t>param_Q_heat_pump2_demand1_starting_index</t>
-  </si>
-  <si>
     <t>param_Q_to_heat_pump2_starting_index</t>
   </si>
   <si>
+    <t>param_total_emissions_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_sell_starting_index</t>
+  </si>
+  <si>
+    <t>param_total_buy_starting_index</t>
+  </si>
+  <si>
     <t>param_total_operation_cost_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_emissions_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_sell_starting_index</t>
-  </si>
-  <si>
-    <t>param_total_buy_starting_index</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>236.9751180014891</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>331.7651652020848</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>19.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>19.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>215.52</v>
+        <v>592.4377950037228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>52.4377950037229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>301.728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>538.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>180.0793385011169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>53.6377950037229</v>
+        <v>180.0793385011169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>900.3966925055844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>53.6377950037229</v>
+        <v>900.3966925055843</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>838.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>838.8</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>246.1323714034251</v>
+        <v>216.0952062013402</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>61.95669250558429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>21.45511800148916</v>
+        <v>61.59669250558429</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.8999999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>10.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>4.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>4.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>10.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>0.6000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2875,7 +2875,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>2.76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>2.76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2907,7 +2907,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>8.561643835616438</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>42.12328767123287</v>
+        <v>563.9403714034249</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>563.940371403425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2987,7 +2987,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>417.054456502606</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>417.0544565026061</v>
+        <v>42.12328767123287</v>
       </c>
     </row>
   </sheetData>
